--- a/DataSource/DataSource - Endoso - Devolucion.xlsx
+++ b/DataSource/DataSource - Endoso - Devolucion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CE215-E896-4F0A-9017-D02F1B05F8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3C4A6-31F4-4326-A816-D5DFD1B169D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,10 @@
     <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>04005238448</t>
-  </si>
-  <si>
     <t>silverarrow</t>
+  </si>
+  <si>
+    <t>04104013020</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,10 +435,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
